--- a/meta_data_SRA_files.xlsx
+++ b/meta_data_SRA_files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanpowers/Documents/GitHub/Modeling-Transcription/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFD98A2-D17E-E94D-A7DE-38A1510F86C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB0D6C3-C0D0-7249-90B7-0CD2D4AB0533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16100" yWindow="760" windowWidth="13940" windowHeight="17820" xr2:uid="{5900FD89-6E6C-F641-8F9F-FFC2BA396103}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="128">
   <si>
     <t>SRA</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>H4K12Ac WT</t>
+  </si>
+  <si>
+    <t>SRR3286792</t>
+  </si>
+  <si>
+    <t>H4K16Ac WT</t>
+  </si>
+  <si>
+    <t>SRR5224478</t>
   </si>
 </sst>
 </file>
@@ -807,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AB69A-9BB8-E74B-834B-92D39CFDA4D2}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2619,6 +2628,58 @@
         <v>118</v>
       </c>
     </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>28947800</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>28947800</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
